--- a/Tools/本地数据表/Sys_Prefab.xlsx
+++ b/Tools/本地数据表/Sys_Prefab.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YouYouTools\本地数据表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyFramework\Tools\本地数据表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F55CCE-BE49-4039-A19F-61181728911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="4605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="4605" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,59 +66,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PoolId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象池编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CullDespawned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开启缓存池自动清理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CullAbove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存池自动清理但是始终保留几个对象不清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CullDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多长时间清理一次单位是秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CullMaxPerPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次清理几个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用角色控制器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleCtrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/RoleCtrl.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePrefab_Zy_tianshan_002_yxt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/Download/Role/RolePrefab/Player/Tianshan_001/Zy_tianshan_002_yxt/Zy_tianshan_002_yxt.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoolId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象池编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullDespawned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否开启缓存池自动清理模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullAbove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存池自动清理但是始终保留几个对象不清理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多长时间清理一次单位是秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullMaxPerPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次清理几个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePrefab_XiaoYao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Xiaoyao_001/Sz_xiaoyao_xsz/Sz_xiaoyao_xsz.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +177,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,8 +210,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,26 +500,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="89.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="37.875" customWidth="1"/>
-    <col min="8" max="8" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="89.125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,28 +529,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,19 +561,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -512,8 +581,11 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -521,53 +593,123 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
+      <c r="J5" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>100002</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="I6" s="2">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Tools/本地数据表/Sys_Prefab.xlsx
+++ b/Tools/本地数据表/Sys_Prefab.xlsx
@@ -142,19 +142,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>逍遥角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePrefab_XiaoYao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Xiaoyao_001/Sz_xiaoyao_xsz/Sz_xiaoyao_xsz.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/Download/Role/RolePrefab/Player/Tianshan_001/Zy_tianshan_002_yxt/Zy_tianshan_002_yxt.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>逍遥角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RolePrefab_XiaoYao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Download/Role/RolePrefab/Player/Xiaoyao_001/Sz_xiaoyao_xsz/Sz_xiaoyao_xsz.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -686,16 +686,16 @@
         <v>100002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>

--- a/Tools/本地数据表/Sys_Prefab.xlsx
+++ b/Tools/本地数据表/Sys_Prefab.xlsx
@@ -24,102 +24,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+  <si>
+    <t>RolePrefab_Zy_tianshan_002_ymt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Tianshan_001/Zy_tianshan_002_ymt/Zy_tianshan_002_ymt.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥角色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePrefab_XiaoYao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Player/Xiaoyao_001/Sz_xiaoyao_xsz/Sz_xiaoyao_xsz.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Download/Role/RolePrefab/Role_NvYao.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetCategory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AssetPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CullDespawned</t>
+  </si>
+  <si>
+    <t>CullAbove</t>
+  </si>
+  <si>
+    <t>CullDelay</t>
+  </si>
+  <si>
+    <t>CullMaxPerPass</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssetCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoolId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对象池编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullDespawned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否开启缓存池自动清理模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullAbove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>缓存池自动清理但是始终保留几个对象不清理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullDelay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多长时间清理一次单位是秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CullMaxPerPass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每次清理几个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通用角色控制器</t>
@@ -142,19 +163,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>逍遥角色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RolePrefab_XiaoYao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Download/Role/RolePrefab/Player/Xiaoyao_001/Sz_xiaoyao_xsz/Sz_xiaoyao_xsz.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Download/Role/RolePrefab/Player/Tianshan_001/Zy_tianshan_002_yxt/Zy_tianshan_002_yxt.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RolePrefab_Role_NvYao</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +193,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -212,13 +224,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -227,6 +239,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -243,10 +323,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="979797"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="202020"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -501,215 +581,974 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="89.125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="37.875" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="95.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9" style="1"/>
+    <col min="257" max="257" width="12" style="1" customWidth="1"/>
+    <col min="258" max="258" width="16.125" style="1" customWidth="1"/>
+    <col min="259" max="259" width="31.125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="18.875" style="1" customWidth="1"/>
+    <col min="261" max="261" width="95.75" style="1" customWidth="1"/>
+    <col min="262" max="262" width="10.75" style="1" customWidth="1"/>
+    <col min="263" max="263" width="25.5" style="1" customWidth="1"/>
+    <col min="264" max="264" width="25.875" style="1" customWidth="1"/>
+    <col min="265" max="265" width="13.875" style="1" customWidth="1"/>
+    <col min="266" max="266" width="18.625" style="1" customWidth="1"/>
+    <col min="267" max="512" width="9" style="1"/>
+    <col min="513" max="513" width="12" style="1" customWidth="1"/>
+    <col min="514" max="514" width="16.125" style="1" customWidth="1"/>
+    <col min="515" max="515" width="31.125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="18.875" style="1" customWidth="1"/>
+    <col min="517" max="517" width="95.75" style="1" customWidth="1"/>
+    <col min="518" max="518" width="10.75" style="1" customWidth="1"/>
+    <col min="519" max="519" width="25.5" style="1" customWidth="1"/>
+    <col min="520" max="520" width="25.875" style="1" customWidth="1"/>
+    <col min="521" max="521" width="13.875" style="1" customWidth="1"/>
+    <col min="522" max="522" width="18.625" style="1" customWidth="1"/>
+    <col min="523" max="768" width="9" style="1"/>
+    <col min="769" max="769" width="12" style="1" customWidth="1"/>
+    <col min="770" max="770" width="16.125" style="1" customWidth="1"/>
+    <col min="771" max="771" width="31.125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="18.875" style="1" customWidth="1"/>
+    <col min="773" max="773" width="95.75" style="1" customWidth="1"/>
+    <col min="774" max="774" width="10.75" style="1" customWidth="1"/>
+    <col min="775" max="775" width="25.5" style="1" customWidth="1"/>
+    <col min="776" max="776" width="25.875" style="1" customWidth="1"/>
+    <col min="777" max="777" width="13.875" style="1" customWidth="1"/>
+    <col min="778" max="778" width="18.625" style="1" customWidth="1"/>
+    <col min="779" max="1024" width="9" style="1"/>
+    <col min="1025" max="1025" width="12" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="16.125" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="31.125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="18.875" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="95.75" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.75" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="25.5" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="25.875" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="13.875" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="18.625" style="1" customWidth="1"/>
+    <col min="1035" max="1280" width="9" style="1"/>
+    <col min="1281" max="1281" width="12" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="16.125" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="31.125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="18.875" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="95.75" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.75" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="25.5" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="25.875" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="13.875" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="18.625" style="1" customWidth="1"/>
+    <col min="1291" max="1536" width="9" style="1"/>
+    <col min="1537" max="1537" width="12" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="16.125" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="31.125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="18.875" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="95.75" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.75" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="25.5" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="25.875" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="13.875" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="18.625" style="1" customWidth="1"/>
+    <col min="1547" max="1792" width="9" style="1"/>
+    <col min="1793" max="1793" width="12" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="16.125" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="31.125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="18.875" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="95.75" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.75" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="25.5" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="25.875" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="13.875" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="18.625" style="1" customWidth="1"/>
+    <col min="1803" max="2048" width="9" style="1"/>
+    <col min="2049" max="2049" width="12" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="16.125" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="31.125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="18.875" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="95.75" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.75" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="25.5" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="25.875" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="13.875" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="18.625" style="1" customWidth="1"/>
+    <col min="2059" max="2304" width="9" style="1"/>
+    <col min="2305" max="2305" width="12" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="16.125" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="31.125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="18.875" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="95.75" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.75" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="25.5" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="25.875" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="13.875" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="18.625" style="1" customWidth="1"/>
+    <col min="2315" max="2560" width="9" style="1"/>
+    <col min="2561" max="2561" width="12" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="16.125" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="31.125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="18.875" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="95.75" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.75" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="25.5" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="25.875" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="13.875" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="18.625" style="1" customWidth="1"/>
+    <col min="2571" max="2816" width="9" style="1"/>
+    <col min="2817" max="2817" width="12" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="16.125" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="31.125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="18.875" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="95.75" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.75" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="25.5" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="25.875" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="13.875" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="18.625" style="1" customWidth="1"/>
+    <col min="2827" max="3072" width="9" style="1"/>
+    <col min="3073" max="3073" width="12" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="16.125" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="31.125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="18.875" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="95.75" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.75" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="25.5" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="25.875" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="13.875" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="18.625" style="1" customWidth="1"/>
+    <col min="3083" max="3328" width="9" style="1"/>
+    <col min="3329" max="3329" width="12" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="16.125" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="31.125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="18.875" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="95.75" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.75" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="25.5" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="25.875" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="13.875" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="18.625" style="1" customWidth="1"/>
+    <col min="3339" max="3584" width="9" style="1"/>
+    <col min="3585" max="3585" width="12" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="16.125" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="31.125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="18.875" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="95.75" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.75" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="25.5" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="25.875" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="13.875" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="18.625" style="1" customWidth="1"/>
+    <col min="3595" max="3840" width="9" style="1"/>
+    <col min="3841" max="3841" width="12" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="16.125" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="31.125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="18.875" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="95.75" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.75" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="25.5" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="25.875" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="13.875" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="18.625" style="1" customWidth="1"/>
+    <col min="3851" max="4096" width="9" style="1"/>
+    <col min="4097" max="4097" width="12" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="16.125" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="31.125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="18.875" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="95.75" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.75" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="25.5" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="25.875" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="13.875" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="18.625" style="1" customWidth="1"/>
+    <col min="4107" max="4352" width="9" style="1"/>
+    <col min="4353" max="4353" width="12" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="16.125" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="31.125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="18.875" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="95.75" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.75" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="25.5" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="25.875" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="13.875" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="18.625" style="1" customWidth="1"/>
+    <col min="4363" max="4608" width="9" style="1"/>
+    <col min="4609" max="4609" width="12" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="16.125" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="31.125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="18.875" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="95.75" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.75" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="25.5" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="25.875" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="13.875" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="18.625" style="1" customWidth="1"/>
+    <col min="4619" max="4864" width="9" style="1"/>
+    <col min="4865" max="4865" width="12" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="16.125" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="31.125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="18.875" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="95.75" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.75" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="25.5" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="25.875" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="13.875" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="18.625" style="1" customWidth="1"/>
+    <col min="4875" max="5120" width="9" style="1"/>
+    <col min="5121" max="5121" width="12" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="16.125" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="31.125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="18.875" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="95.75" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.75" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="25.5" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="25.875" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="13.875" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="18.625" style="1" customWidth="1"/>
+    <col min="5131" max="5376" width="9" style="1"/>
+    <col min="5377" max="5377" width="12" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="16.125" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="31.125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="18.875" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="95.75" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.75" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="25.5" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="25.875" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="13.875" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="18.625" style="1" customWidth="1"/>
+    <col min="5387" max="5632" width="9" style="1"/>
+    <col min="5633" max="5633" width="12" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="16.125" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="31.125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="18.875" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="95.75" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.75" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="25.5" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="25.875" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="13.875" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="18.625" style="1" customWidth="1"/>
+    <col min="5643" max="5888" width="9" style="1"/>
+    <col min="5889" max="5889" width="12" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="16.125" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="31.125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="18.875" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="95.75" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.75" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="25.5" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="25.875" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="13.875" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="18.625" style="1" customWidth="1"/>
+    <col min="5899" max="6144" width="9" style="1"/>
+    <col min="6145" max="6145" width="12" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="16.125" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="31.125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="18.875" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="95.75" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.75" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="25.5" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="25.875" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="13.875" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="18.625" style="1" customWidth="1"/>
+    <col min="6155" max="6400" width="9" style="1"/>
+    <col min="6401" max="6401" width="12" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="16.125" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="31.125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="18.875" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="95.75" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.75" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="25.5" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="25.875" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="13.875" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="18.625" style="1" customWidth="1"/>
+    <col min="6411" max="6656" width="9" style="1"/>
+    <col min="6657" max="6657" width="12" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="16.125" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="31.125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="18.875" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="95.75" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.75" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="25.5" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="25.875" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="13.875" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="18.625" style="1" customWidth="1"/>
+    <col min="6667" max="6912" width="9" style="1"/>
+    <col min="6913" max="6913" width="12" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="16.125" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="31.125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="18.875" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="95.75" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.75" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="25.5" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="25.875" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="13.875" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="18.625" style="1" customWidth="1"/>
+    <col min="6923" max="7168" width="9" style="1"/>
+    <col min="7169" max="7169" width="12" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="16.125" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="31.125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="18.875" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="95.75" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.75" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="25.5" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="25.875" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="13.875" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="18.625" style="1" customWidth="1"/>
+    <col min="7179" max="7424" width="9" style="1"/>
+    <col min="7425" max="7425" width="12" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="16.125" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="31.125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="18.875" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="95.75" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.75" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="25.5" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="25.875" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="13.875" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="18.625" style="1" customWidth="1"/>
+    <col min="7435" max="7680" width="9" style="1"/>
+    <col min="7681" max="7681" width="12" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="16.125" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="31.125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="18.875" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="95.75" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.75" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="25.5" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="25.875" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="13.875" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="18.625" style="1" customWidth="1"/>
+    <col min="7691" max="7936" width="9" style="1"/>
+    <col min="7937" max="7937" width="12" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="16.125" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="31.125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="18.875" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="95.75" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.75" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="25.5" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="25.875" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="13.875" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="18.625" style="1" customWidth="1"/>
+    <col min="7947" max="8192" width="9" style="1"/>
+    <col min="8193" max="8193" width="12" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="16.125" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="31.125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="18.875" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="95.75" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.75" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="25.5" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="25.875" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="13.875" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="18.625" style="1" customWidth="1"/>
+    <col min="8203" max="8448" width="9" style="1"/>
+    <col min="8449" max="8449" width="12" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="16.125" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="31.125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="18.875" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="95.75" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.75" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="25.5" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="25.875" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="13.875" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="18.625" style="1" customWidth="1"/>
+    <col min="8459" max="8704" width="9" style="1"/>
+    <col min="8705" max="8705" width="12" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="16.125" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="31.125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="18.875" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="95.75" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.75" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="25.5" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="25.875" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="13.875" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="18.625" style="1" customWidth="1"/>
+    <col min="8715" max="8960" width="9" style="1"/>
+    <col min="8961" max="8961" width="12" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="16.125" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="31.125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="18.875" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="95.75" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.75" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="25.5" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="25.875" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="13.875" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="18.625" style="1" customWidth="1"/>
+    <col min="8971" max="9216" width="9" style="1"/>
+    <col min="9217" max="9217" width="12" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="16.125" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="31.125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="18.875" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="95.75" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.75" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="25.5" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="25.875" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="13.875" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="18.625" style="1" customWidth="1"/>
+    <col min="9227" max="9472" width="9" style="1"/>
+    <col min="9473" max="9473" width="12" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="16.125" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="31.125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="18.875" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="95.75" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.75" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="25.5" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="25.875" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="13.875" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="18.625" style="1" customWidth="1"/>
+    <col min="9483" max="9728" width="9" style="1"/>
+    <col min="9729" max="9729" width="12" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="16.125" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="31.125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="18.875" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="95.75" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.75" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="25.5" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="25.875" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="13.875" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="18.625" style="1" customWidth="1"/>
+    <col min="9739" max="9984" width="9" style="1"/>
+    <col min="9985" max="9985" width="12" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="16.125" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="31.125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="18.875" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="95.75" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.75" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="25.5" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="25.875" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="13.875" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="18.625" style="1" customWidth="1"/>
+    <col min="9995" max="10240" width="9" style="1"/>
+    <col min="10241" max="10241" width="12" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="16.125" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="31.125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="18.875" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="95.75" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.75" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="25.5" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="25.875" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="13.875" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="18.625" style="1" customWidth="1"/>
+    <col min="10251" max="10496" width="9" style="1"/>
+    <col min="10497" max="10497" width="12" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="16.125" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="31.125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="18.875" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="95.75" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.75" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="25.5" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="25.875" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="13.875" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="18.625" style="1" customWidth="1"/>
+    <col min="10507" max="10752" width="9" style="1"/>
+    <col min="10753" max="10753" width="12" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="16.125" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="31.125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="18.875" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="95.75" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.75" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="25.5" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="25.875" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="13.875" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="18.625" style="1" customWidth="1"/>
+    <col min="10763" max="11008" width="9" style="1"/>
+    <col min="11009" max="11009" width="12" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="16.125" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="31.125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="18.875" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="95.75" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.75" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="25.5" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="25.875" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="13.875" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="18.625" style="1" customWidth="1"/>
+    <col min="11019" max="11264" width="9" style="1"/>
+    <col min="11265" max="11265" width="12" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="16.125" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="31.125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="18.875" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="95.75" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.75" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="25.5" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="25.875" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="13.875" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="18.625" style="1" customWidth="1"/>
+    <col min="11275" max="11520" width="9" style="1"/>
+    <col min="11521" max="11521" width="12" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="16.125" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="31.125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="18.875" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="95.75" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.75" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="25.5" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="25.875" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="13.875" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="18.625" style="1" customWidth="1"/>
+    <col min="11531" max="11776" width="9" style="1"/>
+    <col min="11777" max="11777" width="12" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="16.125" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="31.125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="18.875" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="95.75" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.75" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="25.5" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="25.875" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="13.875" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="18.625" style="1" customWidth="1"/>
+    <col min="11787" max="12032" width="9" style="1"/>
+    <col min="12033" max="12033" width="12" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="16.125" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="31.125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="18.875" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="95.75" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.75" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="25.5" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="25.875" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="13.875" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="18.625" style="1" customWidth="1"/>
+    <col min="12043" max="12288" width="9" style="1"/>
+    <col min="12289" max="12289" width="12" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="16.125" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="31.125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="18.875" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="95.75" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.75" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="25.5" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="25.875" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="13.875" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="18.625" style="1" customWidth="1"/>
+    <col min="12299" max="12544" width="9" style="1"/>
+    <col min="12545" max="12545" width="12" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="16.125" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="31.125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="18.875" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="95.75" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.75" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="25.5" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="25.875" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="13.875" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="18.625" style="1" customWidth="1"/>
+    <col min="12555" max="12800" width="9" style="1"/>
+    <col min="12801" max="12801" width="12" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="16.125" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="31.125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="18.875" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="95.75" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.75" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="25.5" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="25.875" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="13.875" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="18.625" style="1" customWidth="1"/>
+    <col min="12811" max="13056" width="9" style="1"/>
+    <col min="13057" max="13057" width="12" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="16.125" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="31.125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="18.875" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="95.75" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.75" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="25.5" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="25.875" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="13.875" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="18.625" style="1" customWidth="1"/>
+    <col min="13067" max="13312" width="9" style="1"/>
+    <col min="13313" max="13313" width="12" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="16.125" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="31.125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="18.875" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="95.75" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.75" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="25.5" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="25.875" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="13.875" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="18.625" style="1" customWidth="1"/>
+    <col min="13323" max="13568" width="9" style="1"/>
+    <col min="13569" max="13569" width="12" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="16.125" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="31.125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="18.875" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="95.75" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.75" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="25.5" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="25.875" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="13.875" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="18.625" style="1" customWidth="1"/>
+    <col min="13579" max="13824" width="9" style="1"/>
+    <col min="13825" max="13825" width="12" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="16.125" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="31.125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="18.875" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="95.75" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.75" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="25.5" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="25.875" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="13.875" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="18.625" style="1" customWidth="1"/>
+    <col min="13835" max="14080" width="9" style="1"/>
+    <col min="14081" max="14081" width="12" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="16.125" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="31.125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="18.875" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="95.75" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.75" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="25.5" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="25.875" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="13.875" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="18.625" style="1" customWidth="1"/>
+    <col min="14091" max="14336" width="9" style="1"/>
+    <col min="14337" max="14337" width="12" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="16.125" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="31.125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="18.875" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="95.75" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.75" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="25.5" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="25.875" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="13.875" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="18.625" style="1" customWidth="1"/>
+    <col min="14347" max="14592" width="9" style="1"/>
+    <col min="14593" max="14593" width="12" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="16.125" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="31.125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="18.875" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="95.75" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.75" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="25.5" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="25.875" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="13.875" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="18.625" style="1" customWidth="1"/>
+    <col min="14603" max="14848" width="9" style="1"/>
+    <col min="14849" max="14849" width="12" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="16.125" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="31.125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="18.875" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="95.75" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.75" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="25.5" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="25.875" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="13.875" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="18.625" style="1" customWidth="1"/>
+    <col min="14859" max="15104" width="9" style="1"/>
+    <col min="15105" max="15105" width="12" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="16.125" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="31.125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="18.875" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="95.75" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.75" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="25.5" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="25.875" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="13.875" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="18.625" style="1" customWidth="1"/>
+    <col min="15115" max="15360" width="9" style="1"/>
+    <col min="15361" max="15361" width="12" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="16.125" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="31.125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="18.875" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="95.75" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.75" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="25.5" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="25.875" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="13.875" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="18.625" style="1" customWidth="1"/>
+    <col min="15371" max="15616" width="9" style="1"/>
+    <col min="15617" max="15617" width="12" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="16.125" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="31.125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="18.875" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="95.75" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.75" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="25.5" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="25.875" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="13.875" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="18.625" style="1" customWidth="1"/>
+    <col min="15627" max="15872" width="9" style="1"/>
+    <col min="15873" max="15873" width="12" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="16.125" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="31.125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="18.875" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="95.75" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.75" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="25.5" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="25.875" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="13.875" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="18.625" style="1" customWidth="1"/>
+    <col min="15883" max="16128" width="9" style="1"/>
+    <col min="16129" max="16129" width="12" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="16.125" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="31.125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="18.875" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="95.75" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.75" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="25.5" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="25.875" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="13.875" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="18.625" style="1" customWidth="1"/>
+    <col min="16139" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>30</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>100001</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>15</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>100002</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>15</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
       </c>
     </row>
